--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,61 +43,67 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>disappointing</t>
+    <t>poor</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>water</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>probably</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>missing</t>
+    <t>guess</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>apart</t>
   </si>
   <si>
     <t>fell</t>
   </si>
   <si>
-    <t>short</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>plastic</t>
@@ -106,135 +112,129 @@
     <t>paint</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
     <t>di</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>tried</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>bit</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>though</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
     <t>could</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>box</t>
   </si>
   <si>
-    <t>product</t>
+    <t>2</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>2</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>even</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -244,67 +244,73 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>enjoyed</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>game</t>
+    <t>playing</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>playing</t>
-  </si>
-  <si>
     <t>play</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>good</t>
@@ -679,7 +685,7 @@
         <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -737,13 +743,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -755,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>70</v>
@@ -787,13 +793,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.896551724137931</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -805,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -829,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -837,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8409090909090909</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -855,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -879,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -887,13 +893,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -905,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K6">
-        <v>0.8387096774193549</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L6">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M6">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -929,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -937,13 +943,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7368421052631579</v>
+        <v>0.71875</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -955,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K7">
-        <v>0.75</v>
+        <v>0.796875</v>
       </c>
       <c r="L7">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M7">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -979,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -987,13 +993,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7323943661971831</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C8">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1005,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K8">
-        <v>0.660377358490566</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1029,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1037,13 +1043,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6747572815533981</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C9">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D9">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1055,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K9">
-        <v>0.5868005738880918</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="L9">
-        <v>409</v>
+        <v>44</v>
       </c>
       <c r="M9">
-        <v>409</v>
+        <v>44</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1079,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>288</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1087,13 +1093,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6666666666666666</v>
+        <v>0.668918918918919</v>
       </c>
       <c r="C10">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="D10">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1105,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K10">
-        <v>0.5507246376811594</v>
+        <v>0.5724533715925395</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>399</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>399</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1129,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1137,13 +1143,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6571428571428571</v>
+        <v>0.6456310679611651</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1155,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K11">
-        <v>0.516597510373444</v>
+        <v>0.5373443983402489</v>
       </c>
       <c r="L11">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M11">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1179,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1187,13 +1193,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6216216216216216</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C12">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1205,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K12">
-        <v>0.4631147540983607</v>
+        <v>0.4721311475409836</v>
       </c>
       <c r="L12">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="M12">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1229,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>655</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1237,13 +1243,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5966386554621849</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="C13">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D13">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1255,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K13">
-        <v>0.3944954128440367</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="L13">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1279,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>198</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1287,13 +1293,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5625</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1305,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K14">
-        <v>0.3674698795180723</v>
+        <v>0.363914373088685</v>
       </c>
       <c r="L14">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="M14">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1329,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>105</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1337,13 +1343,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5476190476190477</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1361,13 +1367,13 @@
         <v>82</v>
       </c>
       <c r="K15">
-        <v>0.3666666666666666</v>
+        <v>0.3386243386243386</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1379,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>76</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1387,13 +1393,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.527536231884058</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C16">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1405,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K16">
-        <v>0.3492063492063492</v>
+        <v>0.3373493975903614</v>
       </c>
       <c r="L16">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="M16">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1429,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1437,13 +1443,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5272727272727272</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1455,31 +1461,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K17">
-        <v>0.3026315789473684</v>
+        <v>0.3</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1487,13 +1493,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5111111111111111</v>
+        <v>0.5449275362318841</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1505,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>85</v>
       </c>
       <c r="K18">
-        <v>0.2449799196787149</v>
+        <v>0.2734375</v>
       </c>
       <c r="L18">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1529,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>188</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1537,13 +1543,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4819277108433735</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1555,19 +1561,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K19">
-        <v>0.2421875</v>
+        <v>0.2657342657342657</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1579,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1587,13 +1593,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4814814814814815</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1605,19 +1611,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K20">
-        <v>0.2237762237762238</v>
+        <v>0.24</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1629,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1637,13 +1643,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4727272727272727</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1655,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K21">
-        <v>0.2096774193548387</v>
+        <v>0.21285140562249</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1679,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>147</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1687,13 +1693,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4489795918367347</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1705,19 +1711,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K22">
-        <v>0.208</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1729,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>99</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1737,13 +1743,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4488188976377953</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C23">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1755,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>90</v>
@@ -1787,13 +1793,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4444444444444444</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1805,19 +1811,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>91</v>
       </c>
       <c r="K24">
-        <v>0.1761612620508326</v>
+        <v>0.1840490797546012</v>
       </c>
       <c r="L24">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M24">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1829,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>940</v>
+        <v>931</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1837,13 +1843,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4375</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C25">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D25">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1855,31 +1861,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K25">
-        <v>0.106951871657754</v>
+        <v>0.1033810143042913</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>334</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1887,13 +1893,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4265402843601896</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C26">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="D26">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1905,31 +1911,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K26">
-        <v>0.1046814044213264</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="L26">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="N26">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>1377</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1937,13 +1943,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.421875</v>
+        <v>0.4265402843601896</v>
       </c>
       <c r="C27">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D27">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1955,31 +1961,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>94</v>
       </c>
       <c r="K27">
-        <v>0.1002785515320334</v>
+        <v>0.08359133126934984</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>323</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1987,13 +1993,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4157303370786517</v>
+        <v>0.421875</v>
       </c>
       <c r="C28">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D28">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2005,31 +2011,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>95</v>
       </c>
       <c r="K28">
-        <v>0.09657320872274143</v>
+        <v>0.07799442896935933</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N28">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>290</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2037,49 +2043,49 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4150943396226415</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="C29">
         <v>22</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K29">
-        <v>0.07085561497326204</v>
+        <v>0.06133333333333333</v>
       </c>
       <c r="L29">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M29">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N29">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O29">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2087,13 +2093,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4126984126984127</v>
+        <v>0.375</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2105,31 +2111,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K30">
-        <v>0.0329512893982808</v>
+        <v>0.05823293172690763</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N30">
-        <v>0.77</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O30">
-        <v>0.23</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>675</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2137,25 +2143,49 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.396551724137931</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="C31">
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>22</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>39</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K31">
+        <v>0.04107142857142857</v>
+      </c>
+      <c r="L31">
         <v>23</v>
       </c>
-      <c r="D31">
-        <v>23</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>35</v>
+      <c r="M31">
+        <v>28</v>
+      </c>
+      <c r="N31">
+        <v>0.82</v>
+      </c>
+      <c r="O31">
+        <v>0.18</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>537</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2163,25 +2193,49 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3666666666666666</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>59</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K32">
+        <v>0.03129445234708392</v>
+      </c>
+      <c r="L32">
         <v>22</v>
       </c>
-      <c r="D32">
-        <v>22</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>38</v>
+      <c r="M32">
+        <v>24</v>
+      </c>
+      <c r="N32">
+        <v>0.92</v>
+      </c>
+      <c r="O32">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>681</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2189,13 +2243,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3283582089552239</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2207,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>45</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2215,13 +2269,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3267326732673267</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C34">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2233,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>136</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2241,13 +2295,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3263157894736842</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C35">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D35">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2259,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2267,13 +2321,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2857142857142857</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D36">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2285,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>70</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2293,13 +2347,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2525773195876289</v>
+        <v>0.2210144927536232</v>
       </c>
       <c r="C37">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D37">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2311,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>145</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2319,13 +2373,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2307692307692308</v>
+        <v>0.21</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D38">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2337,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>90</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2345,25 +2399,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2088607594936709</v>
+        <v>0.205607476635514</v>
       </c>
       <c r="C39">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>250</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2371,25 +2425,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.205607476635514</v>
+        <v>0.1968253968253968</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D40">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E40">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F40">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>85</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2397,25 +2451,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2038216560509554</v>
+        <v>0.193452380952381</v>
       </c>
       <c r="C41">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>125</v>
+        <v>542</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2423,25 +2477,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2036363636363636</v>
+        <v>0.1930835734870317</v>
       </c>
       <c r="C42">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D42">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E42">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F42">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>219</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2449,25 +2503,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1959798994974874</v>
+        <v>0.1928571428571429</v>
       </c>
       <c r="C43">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D43">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E43">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>160</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2475,13 +2529,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1857142857142857</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2493,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2501,25 +2555,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1847988077496274</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="C45">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="D45">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="E45">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>547</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2527,25 +2581,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1844380403458213</v>
+        <v>0.178343949044586</v>
       </c>
       <c r="C46">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D46">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E46">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>283</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2553,13 +2607,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1740506329113924</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="C47">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D47">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2571,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>261</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2579,13 +2633,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1682242990654206</v>
+        <v>0.1541850220264317</v>
       </c>
       <c r="C48">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D48">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2597,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>178</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2605,13 +2659,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1518324607329843</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C49">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2623,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2631,13 +2685,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1475770925110132</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="C50">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D50">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2649,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>387</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2657,7 +2711,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1420765027322404</v>
+        <v>0.1361256544502618</v>
       </c>
       <c r="C51">
         <v>26</v>
@@ -2675,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2683,25 +2737,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1273408239700375</v>
+        <v>0.1278195488721804</v>
       </c>
       <c r="C52">
         <v>34</v>
       </c>
       <c r="D52">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2709,25 +2763,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1212121212121212</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="C53">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E53">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>319</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2735,25 +2789,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1209677419354839</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D54">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>218</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2761,25 +2815,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1182795698924731</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="C55">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D55">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E55">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="F55">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>164</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2787,25 +2841,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.115819209039548</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C56">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D56">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E56">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F56">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2813,25 +2867,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1073825503355705</v>
+        <v>0.1003584229390681</v>
       </c>
       <c r="C57">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D57">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E57">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F57">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>399</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2839,25 +2893,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.08112582781456953</v>
+        <v>0.08085808580858085</v>
       </c>
       <c r="C58">
         <v>49</v>
       </c>
       <c r="D58">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E58">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="F58">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2865,25 +2919,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07857142857142857</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="C59">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D59">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>258</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2891,13 +2945,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.0759493670886076</v>
+        <v>0.06962025316455696</v>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D60">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E60">
         <v>0.04</v>
@@ -2909,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2917,25 +2971,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.06775700934579439</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="C61">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E61">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="F61">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2943,25 +2997,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.0561941251596424</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C62">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D62">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E62">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="F62">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>739</v>
+        <v>609</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2969,25 +3023,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.04930662557781202</v>
+        <v>0.05548387096774193</v>
       </c>
       <c r="C63">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D63">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E63">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="F63">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>617</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
